--- a/data/Subset 1/Ribbons 3_Grade 4 - student talk moves.csv.xlsx
+++ b/data/Subset 1/Ribbons 3_Grade 4 - student talk moves.csv.xlsx
@@ -483,7 +483,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>T/R1:</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -512,7 +512,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>T/R1:</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -587,7 +587,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -597,7 +597,7 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>3 - Getting Students to Relate</t>
+          <t>3 - Getting SS to Relate</t>
         </is>
       </c>
       <c r="G6" t="inlineStr"/>
@@ -612,7 +612,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -637,7 +637,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -647,7 +647,7 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>3 - Getting Students to Relate</t>
+          <t>3 - Getting SS to Relate</t>
         </is>
       </c>
       <c r="G8" t="inlineStr"/>
@@ -662,12 +662,12 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Ok, I guess what I'm  curious about is how much you could, um, predict  about ribbons and bows, maybe without having the  ribbons and bows in front of you, if you try to  remember some of the things you did and as you try  to explain to me your thinking, um, on some  predictions, so I'd like you all to imagine, how many of  you can imagine in your heads a meter?</t>
+          <t>Ok, I guess what I'm  curious about is how much you could, um, prediT2  about ribbons and bows, maybe without having the  ribbons and bows in front of you, if you try to  remember some of the things you did and as you try  to explain to me your thinking, um, on some  prediT2ions, so I'd like you all to imagine, how many of  you can imagine in your heads a meter?</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -687,7 +687,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -712,7 +712,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -737,12 +737,12 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>If you can would you raise your hand [all  students raise hands]</t>
+          <t>If you can would you raise your hand [all  SS raise hands]</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -760,7 +760,7 @@
       <c r="C13" t="inlineStr"/>
       <c r="D13" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -785,7 +785,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -810,7 +810,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Students</t>
+          <t>SS</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -835,7 +835,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -860,7 +860,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Students</t>
+          <t>SS</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -885,7 +885,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -910,7 +910,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Students</t>
+          <t>SS</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -935,7 +935,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -960,7 +960,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Students</t>
+          <t>SS</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -985,7 +985,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -1010,7 +1010,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Students</t>
+          <t>SS</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -1039,7 +1039,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -1064,7 +1064,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -1089,7 +1089,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -1114,7 +1114,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -1139,7 +1139,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -1193,7 +1193,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -1218,7 +1218,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -1228,7 +1228,7 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>3 - Getting Students to Relate</t>
+          <t>3 - Getting SS to Relate</t>
         </is>
       </c>
       <c r="G31" t="inlineStr"/>
@@ -1243,7 +1243,7 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -1268,7 +1268,7 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -1293,7 +1293,7 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -1303,7 +1303,7 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>3 - Getting Students to Relate</t>
+          <t>3 - Getting SS to Relate</t>
         </is>
       </c>
       <c r="G34" t="inlineStr"/>
@@ -1318,7 +1318,7 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -1343,7 +1343,7 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -1368,12 +1368,12 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t xml:space="preserve">It's pretty good, actually [brings over meter stick] </t>
+          <t xml:space="preserve">It's pretty good, aT2ually [brings over meter stick] </t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
@@ -1391,7 +1391,7 @@
       <c r="C38" t="inlineStr"/>
       <c r="D38" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
@@ -1416,7 +1416,7 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
@@ -1441,7 +1441,7 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
@@ -1466,7 +1466,7 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
@@ -1491,7 +1491,7 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -1516,7 +1516,7 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
@@ -1541,7 +1541,7 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Student</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
@@ -1566,7 +1566,7 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
@@ -1616,7 +1616,7 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
@@ -1641,12 +1641,12 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Brian got it exactly.</t>
+          <t>Brian got it exaT2ly.</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
@@ -1666,7 +1666,7 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
@@ -1691,7 +1691,7 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
@@ -1716,7 +1716,7 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
@@ -1741,7 +1741,7 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
@@ -1795,7 +1795,7 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
@@ -1820,7 +1820,7 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
@@ -1845,7 +1845,7 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
@@ -1870,7 +1870,7 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
@@ -1895,7 +1895,7 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
@@ -1945,7 +1945,7 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
@@ -2045,7 +2045,7 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
@@ -2070,7 +2070,7 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
@@ -2120,7 +2120,7 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
@@ -2174,7 +2174,7 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
@@ -2199,7 +2199,7 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
@@ -2224,7 +2224,7 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
@@ -2234,7 +2234,7 @@
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>3 - Getting Students to Relate</t>
+          <t>3 - Getting SS to Relate</t>
         </is>
       </c>
       <c r="G71" t="inlineStr"/>
@@ -2282,7 +2282,7 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>T/R1:</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
@@ -2311,7 +2311,7 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>T/R1:</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
@@ -2321,7 +2321,7 @@
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>3 - Getting Students to Relate</t>
+          <t>3 - Getting SS to Relate</t>
         </is>
       </c>
       <c r="G74" t="inlineStr"/>
@@ -2340,7 +2340,7 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>T/R1:</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
@@ -2350,7 +2350,7 @@
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>3 - Getting Students to Relate</t>
+          <t>3 - Getting SS to Relate</t>
         </is>
       </c>
       <c r="G75" t="inlineStr"/>
@@ -2365,7 +2365,7 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>Student</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
@@ -2390,7 +2390,7 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
@@ -2415,7 +2415,7 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
@@ -2440,7 +2440,7 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>Students</t>
+          <t>SS</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
@@ -2490,7 +2490,7 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
@@ -2515,7 +2515,7 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>Students</t>
+          <t>SS</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
@@ -2540,7 +2540,7 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
@@ -2565,7 +2565,7 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
@@ -2615,7 +2615,7 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
@@ -2665,7 +2665,7 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
@@ -2690,7 +2690,7 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
@@ -2715,7 +2715,7 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
@@ -2725,7 +2725,7 @@
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>3 - Getting Students to Relate</t>
+          <t>3 - Getting SS to Relate</t>
         </is>
       </c>
       <c r="G90" t="inlineStr"/>
@@ -2765,7 +2765,7 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
@@ -2790,7 +2790,7 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
@@ -2844,7 +2844,7 @@
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
@@ -2869,7 +2869,7 @@
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
@@ -2894,7 +2894,7 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
@@ -2919,7 +2919,7 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
@@ -2944,7 +2944,7 @@
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>Students</t>
+          <t>SS</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
@@ -2994,7 +2994,7 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>Students</t>
+          <t>SS</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
@@ -3019,7 +3019,7 @@
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
@@ -3044,7 +3044,7 @@
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>Students</t>
+          <t>SS</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
@@ -3069,7 +3069,7 @@
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
@@ -3094,7 +3094,7 @@
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
@@ -3119,7 +3119,7 @@
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
@@ -3169,7 +3169,7 @@
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
@@ -3203,7 +3203,7 @@
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>I was going to say that um to the door, the outside  door down to where you take a right[students talk  simultaneously]</t>
+          <t>I was going to say that um to the door, the outside  door down to where you take a right[SS talk  simultaneously]</t>
         </is>
       </c>
       <c r="F109" t="inlineStr"/>
@@ -3223,12 +3223,12 @@
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>Oh so all the way where the intersection is where you  can make a right, Danielle?</t>
+          <t>Oh so all the way where the interseT2ion is where you  can make a right, Danielle?</t>
         </is>
       </c>
       <c r="F110" t="inlineStr">
@@ -3273,7 +3273,7 @@
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
@@ -3323,7 +3323,7 @@
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
@@ -3348,7 +3348,7 @@
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>Students</t>
+          <t>SS</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
@@ -3381,7 +3381,7 @@
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>T/R1:</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
@@ -3410,7 +3410,7 @@
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>T/R1:</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
@@ -3420,7 +3420,7 @@
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>3 - Getting Students to Relate</t>
+          <t>3 - Getting SS to Relate</t>
         </is>
       </c>
       <c r="G117" t="inlineStr"/>
@@ -3439,7 +3439,7 @@
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>T/R1:</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
@@ -3468,7 +3468,7 @@
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>T/R1:</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
@@ -3497,7 +3497,7 @@
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>T/R1:</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
@@ -3526,12 +3526,12 @@
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>T/R1:</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>I'm not going to  ask you exactly but you have some idea what a third  of a meter is, you know what we mean by a third of  something, don't you?</t>
+          <t>I'm not going to  ask you exaT2ly but you have some idea what a third  of a meter is, you know what we mean by a third of  something, don't you?</t>
         </is>
       </c>
       <c r="F121" t="inlineStr">
@@ -3555,7 +3555,7 @@
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>T/R1:</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
@@ -3584,7 +3584,7 @@
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>T/R1:</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
@@ -3613,7 +3613,7 @@
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>T/R1:</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
@@ -3642,12 +3642,12 @@
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>T/R1:</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>We  did that yesterday in the beginning of class, Meredith  wasn't here, but what we did, Meredith, remember  some of you actually made string of a meter and you  made your string into thirds and you had your third of  a meter length, I remember that, right?</t>
+          <t>We  did that yesterday in the beginning of class, Meredith  wasn't here, but what we did, Meredith, remember  some of you aT2ually made string of a meter and you  made your string into thirds and you had your third of  a meter length, I remember that, right?</t>
         </is>
       </c>
       <c r="F125" t="inlineStr">
@@ -3671,7 +3671,7 @@
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>T/R1:</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
@@ -3700,7 +3700,7 @@
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>T/R1:</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
@@ -3729,7 +3729,7 @@
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>T/R1:</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
@@ -3758,7 +3758,7 @@
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>T/R1:</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
@@ -3787,7 +3787,7 @@
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>T/R1:</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
@@ -3816,7 +3816,7 @@
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>T/R1:</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E131" t="inlineStr">
@@ -3845,7 +3845,7 @@
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>T/R1:</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
@@ -3874,7 +3874,7 @@
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>T/R1:</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
@@ -3884,7 +3884,7 @@
       </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t>3 - Getting Students to Relate</t>
+          <t>3 - Getting SS to Relate</t>
         </is>
       </c>
       <c r="G133" t="inlineStr"/>
@@ -3903,7 +3903,7 @@
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>T/R1:</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
@@ -3932,7 +3932,7 @@
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>T/R1:</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E135" t="inlineStr">
@@ -3942,7 +3942,7 @@
       </c>
       <c r="F135" t="inlineStr">
         <is>
-          <t>3 - Getting Students to Relate</t>
+          <t>3 - Getting SS to Relate</t>
         </is>
       </c>
       <c r="G135" t="inlineStr"/>
@@ -3961,7 +3961,7 @@
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>T/R1:</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E136" t="inlineStr">
@@ -3990,7 +3990,7 @@
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>T/R1:</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E137" t="inlineStr">
@@ -4019,7 +4019,7 @@
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>T/R1:</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
@@ -4044,7 +4044,7 @@
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>Student</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
@@ -4073,7 +4073,7 @@
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E140" t="inlineStr">
@@ -4098,7 +4098,7 @@
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
@@ -4123,7 +4123,7 @@
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
@@ -4177,7 +4177,7 @@
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E144" t="inlineStr">
@@ -4202,7 +4202,7 @@
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E145" t="inlineStr">
@@ -4227,7 +4227,7 @@
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E146" t="inlineStr">
@@ -4252,7 +4252,7 @@
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E147" t="inlineStr">
@@ -4277,7 +4277,7 @@
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E148" t="inlineStr">
@@ -4302,7 +4302,7 @@
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E149" t="inlineStr">
@@ -4327,7 +4327,7 @@
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E150" t="inlineStr">
@@ -4352,7 +4352,7 @@
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E151" t="inlineStr">
@@ -4377,7 +4377,7 @@
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E152" t="inlineStr">
@@ -4402,7 +4402,7 @@
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E153" t="inlineStr">
@@ -4456,7 +4456,7 @@
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E155" t="inlineStr">
@@ -4510,7 +4510,7 @@
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E157" t="inlineStr">
@@ -4560,7 +4560,7 @@
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E159" t="inlineStr">
@@ -4585,7 +4585,7 @@
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E160" t="inlineStr">
@@ -4610,7 +4610,7 @@
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E161" t="inlineStr">
@@ -4635,7 +4635,7 @@
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E162" t="inlineStr">
@@ -4660,7 +4660,7 @@
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E163" t="inlineStr">
@@ -4685,7 +4685,7 @@
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E164" t="inlineStr">
@@ -4710,7 +4710,7 @@
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E165" t="inlineStr">
@@ -4735,7 +4735,7 @@
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E166" t="inlineStr">
@@ -4760,7 +4760,7 @@
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E167" t="inlineStr">
@@ -4785,7 +4785,7 @@
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E168" t="inlineStr">
@@ -4795,7 +4795,7 @@
       </c>
       <c r="F168" t="inlineStr">
         <is>
-          <t>3 - Getting Students to Relate</t>
+          <t>3 - Getting SS to Relate</t>
         </is>
       </c>
       <c r="G168" t="inlineStr"/>
@@ -4810,7 +4810,7 @@
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E169" t="inlineStr">
@@ -4820,7 +4820,7 @@
       </c>
       <c r="F169" t="inlineStr">
         <is>
-          <t>3 - Getting Students to Relate</t>
+          <t>3 - Getting SS to Relate</t>
         </is>
       </c>
       <c r="G169" t="inlineStr"/>
@@ -4835,7 +4835,7 @@
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E170" t="inlineStr">
@@ -4885,7 +4885,7 @@
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E172" t="inlineStr">
@@ -4935,7 +4935,7 @@
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E174" t="inlineStr">
@@ -4960,7 +4960,7 @@
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E175" t="inlineStr">
@@ -5010,7 +5010,7 @@
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E177" t="inlineStr">
@@ -5060,7 +5060,7 @@
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E179" t="inlineStr">
@@ -5112,7 +5112,7 @@
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>T/R1:</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E181" t="inlineStr">
@@ -5141,7 +5141,7 @@
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>T/R1:</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E182" t="inlineStr">
@@ -5170,7 +5170,7 @@
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>T/R1:</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E183" t="inlineStr">
@@ -5199,7 +5199,7 @@
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>T/R1:</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E184" t="inlineStr">
@@ -5228,7 +5228,7 @@
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>T/R1:</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E185" t="inlineStr">
@@ -5238,7 +5238,7 @@
       </c>
       <c r="F185" t="inlineStr">
         <is>
-          <t>3 - Getting Students to Relate</t>
+          <t>3 - Getting SS to Relate</t>
         </is>
       </c>
       <c r="G185" t="inlineStr"/>
@@ -5257,7 +5257,7 @@
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>T/R1:</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E186" t="inlineStr">
@@ -5286,7 +5286,7 @@
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>T/R1:</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E187" t="inlineStr">
@@ -5315,7 +5315,7 @@
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>T/R1:</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E188" t="inlineStr">
@@ -5344,7 +5344,7 @@
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>T/R1:</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E189" t="inlineStr">
@@ -5373,7 +5373,7 @@
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>T/R1:</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E190" t="inlineStr">
@@ -5402,7 +5402,7 @@
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>T/R1:</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E191" t="inlineStr">
@@ -5431,7 +5431,7 @@
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>T/R1:</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E192" t="inlineStr">
@@ -5460,7 +5460,7 @@
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>T/R1:</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E193" t="inlineStr">
@@ -5510,7 +5510,7 @@
       </c>
       <c r="D195" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E195" t="inlineStr">
@@ -5535,7 +5535,7 @@
       </c>
       <c r="D196" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E196" t="inlineStr">
@@ -5560,7 +5560,7 @@
       </c>
       <c r="D197" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E197" t="inlineStr">
@@ -5585,7 +5585,7 @@
       </c>
       <c r="D198" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E198" t="inlineStr">
@@ -5610,7 +5610,7 @@
       </c>
       <c r="D199" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E199" t="inlineStr">
@@ -5635,7 +5635,7 @@
       </c>
       <c r="D200" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E200" t="inlineStr">
@@ -5660,7 +5660,7 @@
       </c>
       <c r="D201" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E201" t="inlineStr">
@@ -5685,7 +5685,7 @@
       </c>
       <c r="D202" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E202" t="inlineStr">
@@ -5710,7 +5710,7 @@
       </c>
       <c r="D203" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E203" t="inlineStr">
@@ -5735,7 +5735,7 @@
       </c>
       <c r="D204" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E204" t="inlineStr">
@@ -5760,7 +5760,7 @@
       </c>
       <c r="D205" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E205" t="inlineStr">
@@ -5785,7 +5785,7 @@
       </c>
       <c r="D206" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E206" t="inlineStr">
@@ -5810,7 +5810,7 @@
       </c>
       <c r="D207" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E207" t="inlineStr">
@@ -5835,7 +5835,7 @@
       </c>
       <c r="D208" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E208" t="inlineStr">
@@ -5860,7 +5860,7 @@
       </c>
       <c r="D209" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E209" t="inlineStr">
@@ -5885,7 +5885,7 @@
       </c>
       <c r="D210" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E210" t="inlineStr">
@@ -5939,7 +5939,7 @@
       </c>
       <c r="D212" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E212" t="inlineStr">
@@ -5964,7 +5964,7 @@
       </c>
       <c r="D213" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E213" t="inlineStr">
@@ -5989,7 +5989,7 @@
       </c>
       <c r="D214" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E214" t="inlineStr">
@@ -6014,7 +6014,7 @@
       </c>
       <c r="D215" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E215" t="inlineStr">
@@ -6064,7 +6064,7 @@
       </c>
       <c r="D217" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E217" t="inlineStr">
@@ -6118,7 +6118,7 @@
       </c>
       <c r="D219" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E219" t="inlineStr">
@@ -6143,7 +6143,7 @@
       </c>
       <c r="D220" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E220" t="inlineStr">
@@ -6168,7 +6168,7 @@
       </c>
       <c r="D221" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E221" t="inlineStr">
@@ -6193,7 +6193,7 @@
       </c>
       <c r="D222" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E222" t="inlineStr">
@@ -6218,7 +6218,7 @@
       </c>
       <c r="D223" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E223" t="inlineStr">
@@ -6243,7 +6243,7 @@
       </c>
       <c r="D224" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E224" t="inlineStr">
@@ -6268,7 +6268,7 @@
       </c>
       <c r="D225" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E225" t="inlineStr">
@@ -6293,7 +6293,7 @@
       </c>
       <c r="D226" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E226" t="inlineStr">
@@ -6318,7 +6318,7 @@
       </c>
       <c r="D227" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E227" t="inlineStr">
@@ -6343,7 +6343,7 @@
       </c>
       <c r="D228" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E228" t="inlineStr">
@@ -6368,7 +6368,7 @@
       </c>
       <c r="D229" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E229" t="inlineStr">
@@ -6393,7 +6393,7 @@
       </c>
       <c r="D230" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E230" t="inlineStr">
@@ -6443,7 +6443,7 @@
       </c>
       <c r="D232" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E232" t="inlineStr">
@@ -6493,7 +6493,7 @@
       </c>
       <c r="D234" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E234" t="inlineStr">
@@ -6503,7 +6503,7 @@
       </c>
       <c r="F234" t="inlineStr">
         <is>
-          <t>3 - Getting Students to Relate</t>
+          <t>3 - Getting SS to Relate</t>
         </is>
       </c>
       <c r="G234" t="inlineStr"/>
@@ -6518,7 +6518,7 @@
       </c>
       <c r="D235" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E235" t="inlineStr">
@@ -6543,7 +6543,7 @@
       </c>
       <c r="D236" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E236" t="inlineStr">
@@ -6568,7 +6568,7 @@
       </c>
       <c r="D237" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E237" t="inlineStr">
@@ -6593,7 +6593,7 @@
       </c>
       <c r="D238" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E238" t="inlineStr">
@@ -6618,7 +6618,7 @@
       </c>
       <c r="D239" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E239" t="inlineStr">
@@ -6672,7 +6672,7 @@
       </c>
       <c r="D241" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E241" t="inlineStr">
@@ -6697,7 +6697,7 @@
       </c>
       <c r="D242" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E242" t="inlineStr">
@@ -6722,7 +6722,7 @@
       </c>
       <c r="D243" t="inlineStr">
         <is>
-          <t>Students</t>
+          <t>SS</t>
         </is>
       </c>
       <c r="E243" t="inlineStr">
@@ -6747,7 +6747,7 @@
       </c>
       <c r="D244" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E244" t="inlineStr">
@@ -6772,7 +6772,7 @@
       </c>
       <c r="D245" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E245" t="inlineStr">
@@ -6797,7 +6797,7 @@
       </c>
       <c r="D246" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E246" t="inlineStr">
@@ -6822,7 +6822,7 @@
       </c>
       <c r="D247" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E247" t="inlineStr">
@@ -6872,7 +6872,7 @@
       </c>
       <c r="D249" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E249" t="inlineStr">
@@ -6897,7 +6897,7 @@
       </c>
       <c r="D250" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E250" t="inlineStr">
@@ -6922,7 +6922,7 @@
       </c>
       <c r="D251" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E251" t="inlineStr">
@@ -6976,7 +6976,7 @@
       </c>
       <c r="D253" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E253" t="inlineStr">
@@ -7001,7 +7001,7 @@
       </c>
       <c r="D254" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E254" t="inlineStr">
@@ -7026,7 +7026,7 @@
       </c>
       <c r="D255" t="inlineStr">
         <is>
-          <t>Students</t>
+          <t>SS</t>
         </is>
       </c>
       <c r="E255" t="inlineStr">
@@ -7055,7 +7055,7 @@
       </c>
       <c r="D256" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E256" t="inlineStr">
@@ -7080,7 +7080,7 @@
       </c>
       <c r="D257" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E257" t="inlineStr">
@@ -7105,7 +7105,7 @@
       </c>
       <c r="D258" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E258" t="inlineStr">
@@ -7130,7 +7130,7 @@
       </c>
       <c r="D259" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E259" t="inlineStr">
@@ -7155,7 +7155,7 @@
       </c>
       <c r="D260" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E260" t="inlineStr">
@@ -7180,7 +7180,7 @@
       </c>
       <c r="D261" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E261" t="inlineStr">
@@ -7205,7 +7205,7 @@
       </c>
       <c r="D262" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E262" t="inlineStr">
@@ -7230,7 +7230,7 @@
       </c>
       <c r="D263" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E263" t="inlineStr">
@@ -7255,7 +7255,7 @@
       </c>
       <c r="D264" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E264" t="inlineStr">
@@ -7280,7 +7280,7 @@
       </c>
       <c r="D265" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E265" t="inlineStr">
@@ -7305,7 +7305,7 @@
       </c>
       <c r="D266" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E266" t="inlineStr">
@@ -7330,7 +7330,7 @@
       </c>
       <c r="D267" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E267" t="inlineStr">
@@ -7355,7 +7355,7 @@
       </c>
       <c r="D268" t="inlineStr">
         <is>
-          <t>Students</t>
+          <t>SS</t>
         </is>
       </c>
       <c r="E268" t="inlineStr">
@@ -7380,7 +7380,7 @@
       </c>
       <c r="D269" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E269" t="inlineStr">
@@ -7405,7 +7405,7 @@
       </c>
       <c r="D270" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E270" t="inlineStr">
@@ -7430,7 +7430,7 @@
       </c>
       <c r="D271" t="inlineStr">
         <is>
-          <t>Students</t>
+          <t>SS</t>
         </is>
       </c>
       <c r="E271" t="inlineStr">
@@ -7455,7 +7455,7 @@
       </c>
       <c r="D272" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E272" t="inlineStr">
@@ -7480,7 +7480,7 @@
       </c>
       <c r="D273" t="inlineStr">
         <is>
-          <t>CT</t>
+          <t>T2</t>
         </is>
       </c>
       <c r="E273" t="inlineStr">
@@ -7501,7 +7501,7 @@
       </c>
       <c r="D274" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E274" t="inlineStr">
@@ -7526,7 +7526,7 @@
       </c>
       <c r="D275" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E275" t="inlineStr">
@@ -7551,7 +7551,7 @@
       </c>
       <c r="D276" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E276" t="inlineStr">
@@ -7576,7 +7576,7 @@
       </c>
       <c r="D277" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E277" t="inlineStr">
@@ -7601,7 +7601,7 @@
       </c>
       <c r="D278" t="inlineStr">
         <is>
-          <t>Student</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E278" t="inlineStr">
@@ -7630,7 +7630,7 @@
       </c>
       <c r="D279" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E279" t="inlineStr">
@@ -7655,7 +7655,7 @@
       </c>
       <c r="D280" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E280" t="inlineStr">
@@ -7680,7 +7680,7 @@
       </c>
       <c r="D281" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E281" t="inlineStr">
@@ -7705,7 +7705,7 @@
       </c>
       <c r="D282" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E282" t="inlineStr">
@@ -7730,7 +7730,7 @@
       </c>
       <c r="D283" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E283" t="inlineStr">
@@ -7755,7 +7755,7 @@
       </c>
       <c r="D284" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E284" t="inlineStr">
@@ -7780,7 +7780,7 @@
       </c>
       <c r="D285" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E285" t="inlineStr">
@@ -7805,7 +7805,7 @@
       </c>
       <c r="D286" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E286" t="inlineStr">
@@ -7830,7 +7830,7 @@
       </c>
       <c r="D287" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E287" t="inlineStr">
@@ -7855,7 +7855,7 @@
       </c>
       <c r="D288" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E288" t="inlineStr">
@@ -7880,7 +7880,7 @@
       </c>
       <c r="D289" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E289" t="inlineStr">
@@ -7905,7 +7905,7 @@
       </c>
       <c r="D290" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E290" t="inlineStr">
@@ -8005,7 +8005,7 @@
       </c>
       <c r="D294" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E294" t="inlineStr">
@@ -8080,7 +8080,7 @@
       </c>
       <c r="D297" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E297" t="inlineStr">
@@ -8128,7 +8128,7 @@
       <c r="C299" t="inlineStr"/>
       <c r="D299" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E299" t="inlineStr">
@@ -8326,7 +8326,7 @@
       </c>
       <c r="D307" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E307" t="inlineStr">
@@ -8376,7 +8376,7 @@
       </c>
       <c r="D309" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E309" t="inlineStr">
@@ -8401,7 +8401,7 @@
       </c>
       <c r="D310" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E310" t="inlineStr">
@@ -8476,7 +8476,7 @@
       </c>
       <c r="D313" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E313" t="inlineStr">
@@ -8501,7 +8501,7 @@
       </c>
       <c r="D314" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E314" t="inlineStr">
@@ -8522,7 +8522,7 @@
       </c>
       <c r="D315" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E315" t="inlineStr">
@@ -8545,7 +8545,7 @@
       <c r="C316" t="inlineStr"/>
       <c r="D316" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E316" t="inlineStr">
@@ -8720,7 +8720,7 @@
       </c>
       <c r="D323" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E323" t="inlineStr">
@@ -8745,7 +8745,7 @@
       </c>
       <c r="D324" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E324" t="inlineStr">
@@ -8770,7 +8770,7 @@
       </c>
       <c r="D325" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E325" t="inlineStr">
@@ -8793,7 +8793,7 @@
       <c r="C326" t="inlineStr"/>
       <c r="D326" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E326" t="inlineStr">
@@ -9066,7 +9066,7 @@
       </c>
       <c r="D337" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E337" t="inlineStr">
@@ -9091,7 +9091,7 @@
       </c>
       <c r="D338" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E338" t="inlineStr">
@@ -9116,7 +9116,7 @@
       </c>
       <c r="D339" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E339" t="inlineStr">
@@ -9141,7 +9141,7 @@
       </c>
       <c r="D340" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E340" t="inlineStr">
@@ -9166,7 +9166,7 @@
       </c>
       <c r="D341" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E341" t="inlineStr">
@@ -9216,7 +9216,7 @@
       </c>
       <c r="D343" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E343" t="inlineStr">
@@ -9264,7 +9264,7 @@
       <c r="C345" t="inlineStr"/>
       <c r="D345" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E345" t="inlineStr">
@@ -9289,7 +9289,7 @@
       </c>
       <c r="D346" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E346" t="inlineStr">
@@ -9314,7 +9314,7 @@
       </c>
       <c r="D347" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E347" t="inlineStr">
@@ -9364,7 +9364,7 @@
       </c>
       <c r="D349" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E349" t="inlineStr">
@@ -9374,7 +9374,7 @@
       </c>
       <c r="F349" t="inlineStr">
         <is>
-          <t>3 - Getting Students to Relate</t>
+          <t>3 - Getting SS to Relate</t>
         </is>
       </c>
       <c r="G349" t="inlineStr"/>
@@ -9414,7 +9414,7 @@
       </c>
       <c r="D351" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E351" t="inlineStr">
@@ -9439,7 +9439,7 @@
       </c>
       <c r="D352" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E352" t="inlineStr">
@@ -9489,7 +9489,7 @@
       </c>
       <c r="D354" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E354" t="inlineStr">
@@ -9758,7 +9758,7 @@
       </c>
       <c r="D365" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E365" t="inlineStr">
@@ -10004,7 +10004,7 @@
       <c r="C375" t="inlineStr"/>
       <c r="D375" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E375" t="inlineStr">
@@ -10029,7 +10029,7 @@
       </c>
       <c r="D376" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E376" t="inlineStr">
@@ -10054,7 +10054,7 @@
       </c>
       <c r="D377" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E377" t="inlineStr">
@@ -10079,7 +10079,7 @@
       </c>
       <c r="D378" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E378" t="inlineStr">
@@ -10104,7 +10104,7 @@
       </c>
       <c r="D379" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E379" t="inlineStr">
@@ -10129,7 +10129,7 @@
       </c>
       <c r="D380" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E380" t="inlineStr">
@@ -10154,7 +10154,7 @@
       </c>
       <c r="D381" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E381" t="inlineStr">
@@ -10177,7 +10177,7 @@
       <c r="C382" t="inlineStr"/>
       <c r="D382" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E382" t="inlineStr">
@@ -10202,7 +10202,7 @@
       </c>
       <c r="D383" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E383" t="inlineStr">
@@ -10227,7 +10227,7 @@
       </c>
       <c r="D384" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E384" t="inlineStr">
@@ -10252,7 +10252,7 @@
       </c>
       <c r="D385" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E385" t="inlineStr">
@@ -10277,7 +10277,7 @@
       </c>
       <c r="D386" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E386" t="inlineStr">
@@ -10427,7 +10427,7 @@
       </c>
       <c r="D392" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E392" t="inlineStr">
@@ -10477,7 +10477,7 @@
       </c>
       <c r="D394" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E394" t="inlineStr">
@@ -10502,7 +10502,7 @@
       </c>
       <c r="D395" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E395" t="inlineStr">
@@ -10527,7 +10527,7 @@
       </c>
       <c r="D396" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E396" t="inlineStr">
@@ -11160,7 +11160,7 @@
       <c r="C423" t="inlineStr"/>
       <c r="D423" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E423" t="inlineStr">
@@ -11185,12 +11185,12 @@
       </c>
       <c r="D424" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E424" t="inlineStr">
         <is>
-          <t>*Inaudible* You can make a  picture.</t>
+          <t>*Inaudible* You can make a  piT2ure.</t>
         </is>
       </c>
       <c r="F424" t="inlineStr">
@@ -11210,12 +11210,12 @@
       </c>
       <c r="D425" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E425" t="inlineStr">
         <is>
-          <t>I want you to imagine what you know already  and try to draw a picture and sketch it.</t>
+          <t>I want you to imagine what you know already  and try to draw a piT2ure and sketch it.</t>
         </is>
       </c>
       <c r="F425" t="inlineStr">
@@ -11285,7 +11285,7 @@
       </c>
       <c r="D428" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E428" t="inlineStr">
@@ -11431,7 +11431,7 @@
       </c>
       <c r="D434" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E434" t="inlineStr">
@@ -11574,7 +11574,7 @@
       <c r="D440" t="inlineStr"/>
       <c r="E440" t="inlineStr">
         <is>
-          <t>78 Students are labeling where they divided the meter stick.</t>
+          <t>78 SS are labeling where they divided the meter stick.</t>
         </is>
       </c>
       <c r="F440" t="inlineStr"/>
@@ -11608,7 +11608,7 @@
       <c r="D442" t="inlineStr"/>
       <c r="E442" t="inlineStr">
         <is>
-          <t>So students negotiate where to put the  second tally.</t>
+          <t>So SS negotiate where to put the  second tally.</t>
         </is>
       </c>
       <c r="F442" t="inlineStr"/>
@@ -11625,7 +11625,7 @@
       <c r="D443" t="inlineStr"/>
       <c r="E443" t="inlineStr">
         <is>
-          <t>*This shows that students are not completely aware of how to  equally divide the meter stick in thirds.</t>
+          <t>*This shows that SS are not completely aware of how to  equally divide the meter stick in thirds.</t>
         </is>
       </c>
       <c r="F443" t="inlineStr"/>
@@ -11852,7 +11852,7 @@
       <c r="C453" t="inlineStr"/>
       <c r="D453" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E453" t="inlineStr">
@@ -11877,7 +11877,7 @@
       </c>
       <c r="D454" t="inlineStr">
         <is>
-          <t>Boy</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E454" t="inlineStr">
@@ -11902,7 +11902,7 @@
       </c>
       <c r="D455" t="inlineStr">
         <is>
-          <t>Boy</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E455" t="inlineStr">
@@ -11927,7 +11927,7 @@
       </c>
       <c r="D456" t="inlineStr">
         <is>
-          <t>Boy</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E456" t="inlineStr">
@@ -11952,7 +11952,7 @@
       </c>
       <c r="D457" t="inlineStr">
         <is>
-          <t>Boy</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E457" t="inlineStr">
@@ -11977,7 +11977,7 @@
       </c>
       <c r="D458" t="inlineStr">
         <is>
-          <t>Boy</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E458" t="inlineStr">
@@ -12002,7 +12002,7 @@
       </c>
       <c r="D459" t="inlineStr">
         <is>
-          <t>Boy</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E459" t="inlineStr">
@@ -12029,7 +12029,7 @@
       </c>
       <c r="D460" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E460" t="inlineStr">
@@ -12056,7 +12056,7 @@
       </c>
       <c r="D461" t="inlineStr">
         <is>
-          <t>T/R1:</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E461" t="inlineStr">
@@ -12083,7 +12083,7 @@
       </c>
       <c r="D462" t="inlineStr">
         <is>
-          <t>T/R1:</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E462" t="inlineStr">
@@ -12110,7 +12110,7 @@
       </c>
       <c r="D463" t="inlineStr">
         <is>
-          <t>T/R1:</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E463" t="inlineStr">
@@ -12137,7 +12137,7 @@
       </c>
       <c r="D464" t="inlineStr">
         <is>
-          <t>T/R1:</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E464" t="inlineStr">
@@ -12216,7 +12216,7 @@
       </c>
       <c r="D467" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E467" t="inlineStr">
@@ -12270,7 +12270,7 @@
       </c>
       <c r="D469" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E469" t="inlineStr">
@@ -12295,7 +12295,7 @@
       </c>
       <c r="D470" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E470" t="inlineStr">
@@ -12332,7 +12332,7 @@
       </c>
       <c r="F471" t="inlineStr">
         <is>
-          <t>3 - Getting Students to Relate</t>
+          <t>3 - Getting SS to Relate</t>
         </is>
       </c>
       <c r="G471" t="inlineStr">
@@ -12428,7 +12428,7 @@
       </c>
       <c r="D475" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E475" t="inlineStr">
@@ -12453,7 +12453,7 @@
       </c>
       <c r="D476" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E476" t="inlineStr">
@@ -12478,7 +12478,7 @@
       </c>
       <c r="D477" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E477" t="inlineStr">
@@ -12503,7 +12503,7 @@
       </c>
       <c r="D478" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E478" t="inlineStr">
@@ -12528,7 +12528,7 @@
       </c>
       <c r="D479" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E479" t="inlineStr">
@@ -12603,7 +12603,7 @@
       </c>
       <c r="D482" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E482" t="inlineStr">
@@ -12653,7 +12653,7 @@
       </c>
       <c r="D484" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E484" t="inlineStr">
@@ -12663,7 +12663,7 @@
       </c>
       <c r="F484" t="inlineStr">
         <is>
-          <t>3 - Getting Students to Relate</t>
+          <t>3 - Getting SS to Relate</t>
         </is>
       </c>
       <c r="G484" t="inlineStr"/>
@@ -12678,7 +12678,7 @@
       </c>
       <c r="D485" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E485" t="inlineStr">
@@ -12703,7 +12703,7 @@
       </c>
       <c r="D486" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E486" t="inlineStr">
@@ -12728,7 +12728,7 @@
       </c>
       <c r="D487" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E487" t="inlineStr">
@@ -12753,7 +12753,7 @@
       </c>
       <c r="D488" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E488" t="inlineStr">
@@ -12778,7 +12778,7 @@
       </c>
       <c r="D489" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E489" t="inlineStr">
@@ -12803,7 +12803,7 @@
       </c>
       <c r="D490" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E490" t="inlineStr">
@@ -12828,7 +12828,7 @@
       </c>
       <c r="D491" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E491" t="inlineStr">
@@ -12853,7 +12853,7 @@
       </c>
       <c r="D492" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E492" t="inlineStr">
@@ -12878,7 +12878,7 @@
       </c>
       <c r="D493" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E493" t="inlineStr">
@@ -12988,7 +12988,7 @@
       </c>
       <c r="D497" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E497" t="inlineStr">
@@ -13013,7 +13013,7 @@
       </c>
       <c r="D498" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E498" t="inlineStr">
@@ -13063,7 +13063,7 @@
       </c>
       <c r="D500" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E500" t="inlineStr">
@@ -13117,7 +13117,7 @@
       </c>
       <c r="D502" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E502" t="inlineStr">
@@ -13167,7 +13167,7 @@
       </c>
       <c r="D504" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E504" t="inlineStr">
@@ -13192,7 +13192,7 @@
       </c>
       <c r="D505" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E505" t="inlineStr">
@@ -13217,7 +13217,7 @@
       </c>
       <c r="D506" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E506" t="inlineStr">
@@ -13242,7 +13242,7 @@
       </c>
       <c r="D507" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E507" t="inlineStr">
@@ -13267,7 +13267,7 @@
       </c>
       <c r="D508" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E508" t="inlineStr">
@@ -13321,7 +13321,7 @@
       </c>
       <c r="D510" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E510" t="inlineStr">
@@ -13346,7 +13346,7 @@
       </c>
       <c r="D511" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E511" t="inlineStr">
@@ -13356,7 +13356,7 @@
       </c>
       <c r="F511" t="inlineStr">
         <is>
-          <t>3 - Getting Students to Relate</t>
+          <t>3 - Getting SS to Relate</t>
         </is>
       </c>
       <c r="G511" t="inlineStr"/>
@@ -13371,7 +13371,7 @@
       </c>
       <c r="D512" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E512" t="inlineStr">
@@ -13396,7 +13396,7 @@
       </c>
       <c r="D513" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E513" t="inlineStr">
@@ -13450,7 +13450,7 @@
       </c>
       <c r="D515" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E515" t="inlineStr">
@@ -13504,7 +13504,7 @@
       </c>
       <c r="D517" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E517" t="inlineStr">
@@ -13529,7 +13529,7 @@
       </c>
       <c r="D518" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E518" t="inlineStr">
@@ -13583,7 +13583,7 @@
       </c>
       <c r="D520" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E520" t="inlineStr">
@@ -13608,7 +13608,7 @@
       </c>
       <c r="D521" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E521" t="inlineStr">
@@ -13662,7 +13662,7 @@
       </c>
       <c r="D523" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E523" t="inlineStr">
@@ -13687,7 +13687,7 @@
       </c>
       <c r="D524" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E524" t="inlineStr">
@@ -13737,7 +13737,7 @@
       </c>
       <c r="D526" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E526" t="inlineStr">
@@ -13789,7 +13789,7 @@
       </c>
       <c r="D528" t="inlineStr">
         <is>
-          <t>T/R1:</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E528" t="inlineStr">
@@ -13816,7 +13816,7 @@
       </c>
       <c r="D529" t="inlineStr">
         <is>
-          <t>T/R1:</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E529" t="inlineStr">
@@ -13843,12 +13843,12 @@
       </c>
       <c r="D530" t="inlineStr">
         <is>
-          <t>T/R1:</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E530" t="inlineStr">
         <is>
-          <t>Let's actually count them.</t>
+          <t>Let's aT2ually count them.</t>
         </is>
       </c>
       <c r="F530" t="inlineStr">
@@ -13870,7 +13870,7 @@
       </c>
       <c r="D531" t="inlineStr">
         <is>
-          <t>T/R1:</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E531" t="inlineStr">
@@ -13897,12 +13897,12 @@
       </c>
       <c r="D532" t="inlineStr">
         <is>
-          <t>T/R1:</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E532" t="inlineStr">
         <is>
-          <t>So here's the first one, let's count  together, [students join] one two three four five six  seven eight nine ten eleven.</t>
+          <t>So here's the first one, let's count  together, [SS join] one two three four five six  seven eight nine ten eleven.</t>
         </is>
       </c>
       <c r="F532" t="inlineStr">
@@ -13924,7 +13924,7 @@
       </c>
       <c r="D533" t="inlineStr">
         <is>
-          <t>T/R1:</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E533" t="inlineStr">
@@ -13949,7 +13949,7 @@
       </c>
       <c r="D534" t="inlineStr">
         <is>
-          <t>Student</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E534" t="inlineStr">
@@ -13974,7 +13974,7 @@
       </c>
       <c r="D535" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E535" t="inlineStr">
@@ -14049,7 +14049,7 @@
       </c>
       <c r="D538" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E538" t="inlineStr">
@@ -14074,7 +14074,7 @@
       </c>
       <c r="D539" t="inlineStr">
         <is>
-          <t>Students</t>
+          <t>SS</t>
         </is>
       </c>
       <c r="E539" t="inlineStr">
@@ -14099,7 +14099,7 @@
       </c>
       <c r="D540" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E540" t="inlineStr">
@@ -14124,7 +14124,7 @@
       </c>
       <c r="D541" t="inlineStr">
         <is>
-          <t>Students</t>
+          <t>SS</t>
         </is>
       </c>
       <c r="E541" t="inlineStr">
@@ -14153,7 +14153,7 @@
       </c>
       <c r="D542" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E542" t="inlineStr">
@@ -14178,7 +14178,7 @@
       </c>
       <c r="D543" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E543" t="inlineStr">
@@ -14203,7 +14203,7 @@
       </c>
       <c r="D544" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E544" t="inlineStr">
@@ -14228,7 +14228,7 @@
       </c>
       <c r="D545" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E545" t="inlineStr">
@@ -14253,7 +14253,7 @@
       </c>
       <c r="D546" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E546" t="inlineStr">
@@ -14278,7 +14278,7 @@
       </c>
       <c r="D547" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E547" t="inlineStr">
@@ -14303,7 +14303,7 @@
       </c>
       <c r="D548" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E548" t="inlineStr">
@@ -14328,7 +14328,7 @@
       </c>
       <c r="D549" t="inlineStr">
         <is>
-          <t>Student</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E549" t="inlineStr">
@@ -14353,7 +14353,7 @@
       </c>
       <c r="D550" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E550" t="inlineStr">
@@ -14363,7 +14363,7 @@
       </c>
       <c r="F550" t="inlineStr">
         <is>
-          <t>3 - Getting Students to Relate</t>
+          <t>3 - Getting SS to Relate</t>
         </is>
       </c>
       <c r="G550" t="inlineStr"/>
@@ -14403,7 +14403,7 @@
       </c>
       <c r="D552" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E552" t="inlineStr">
@@ -14428,7 +14428,7 @@
       </c>
       <c r="D553" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E553" t="inlineStr">
@@ -14438,7 +14438,7 @@
       </c>
       <c r="F553" t="inlineStr">
         <is>
-          <t>3 - Getting Students to Relate</t>
+          <t>3 - Getting SS to Relate</t>
         </is>
       </c>
       <c r="G553" t="inlineStr"/>
@@ -14482,7 +14482,7 @@
       </c>
       <c r="D555" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E555" t="inlineStr">
@@ -14507,7 +14507,7 @@
       </c>
       <c r="D556" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E556" t="inlineStr">
@@ -14532,7 +14532,7 @@
       </c>
       <c r="D557" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E557" t="inlineStr">
@@ -14557,7 +14557,7 @@
       </c>
       <c r="D558" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E558" t="inlineStr">
@@ -14567,7 +14567,7 @@
       </c>
       <c r="F558" t="inlineStr">
         <is>
-          <t>3 - Getting Students to Relate</t>
+          <t>3 - Getting SS to Relate</t>
         </is>
       </c>
       <c r="G558" t="inlineStr"/>
@@ -14582,7 +14582,7 @@
       </c>
       <c r="D559" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E559" t="inlineStr">
@@ -14592,7 +14592,7 @@
       </c>
       <c r="F559" t="inlineStr">
         <is>
-          <t>3 - Getting Students to Relate</t>
+          <t>3 - Getting SS to Relate</t>
         </is>
       </c>
       <c r="G559" t="inlineStr"/>
@@ -14607,7 +14607,7 @@
       </c>
       <c r="D560" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E560" t="inlineStr">
@@ -14617,7 +14617,7 @@
       </c>
       <c r="F560" t="inlineStr">
         <is>
-          <t>3 - Getting Students to Relate</t>
+          <t>3 - Getting SS to Relate</t>
         </is>
       </c>
       <c r="G560" t="inlineStr"/>
@@ -14632,7 +14632,7 @@
       </c>
       <c r="D561" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E561" t="inlineStr">
@@ -14642,7 +14642,7 @@
       </c>
       <c r="F561" t="inlineStr">
         <is>
-          <t>3 - Getting Students to Relate</t>
+          <t>3 - Getting SS to Relate</t>
         </is>
       </c>
       <c r="G561" t="inlineStr"/>
@@ -14657,7 +14657,7 @@
       </c>
       <c r="D562" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E562" t="inlineStr">
@@ -14711,7 +14711,7 @@
       </c>
       <c r="D564" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E564" t="inlineStr">
@@ -14736,7 +14736,7 @@
       </c>
       <c r="D565" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E565" t="inlineStr">
@@ -14761,7 +14761,7 @@
       </c>
       <c r="D566" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E566" t="inlineStr">
@@ -14786,7 +14786,7 @@
       </c>
       <c r="D567" t="inlineStr">
         <is>
-          <t>Student</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E567" t="inlineStr">
@@ -14811,7 +14811,7 @@
       </c>
       <c r="D568" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E568" t="inlineStr">
@@ -14836,7 +14836,7 @@
       </c>
       <c r="D569" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E569" t="inlineStr">
@@ -14890,7 +14890,7 @@
       </c>
       <c r="D571" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E571" t="inlineStr">
@@ -14915,7 +14915,7 @@
       </c>
       <c r="D572" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E572" t="inlineStr">
@@ -14940,7 +14940,7 @@
       </c>
       <c r="D573" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E573" t="inlineStr">
@@ -14950,7 +14950,7 @@
       </c>
       <c r="F573" t="inlineStr">
         <is>
-          <t>3 - Getting Students to Relate</t>
+          <t>3 - Getting SS to Relate</t>
         </is>
       </c>
       <c r="G573" t="inlineStr"/>
@@ -14965,7 +14965,7 @@
       </c>
       <c r="D574" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E574" t="inlineStr">
@@ -14975,7 +14975,7 @@
       </c>
       <c r="F574" t="inlineStr">
         <is>
-          <t>3 - Getting Students to Relate</t>
+          <t>3 - Getting SS to Relate</t>
         </is>
       </c>
       <c r="G574" t="inlineStr"/>
@@ -14990,7 +14990,7 @@
       </c>
       <c r="D575" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E575" t="inlineStr">
@@ -15015,7 +15015,7 @@
       </c>
       <c r="D576" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E576" t="inlineStr">
@@ -15025,7 +15025,7 @@
       </c>
       <c r="F576" t="inlineStr">
         <is>
-          <t>3 - Getting Students to Relate</t>
+          <t>3 - Getting SS to Relate</t>
         </is>
       </c>
       <c r="G576" t="inlineStr"/>
@@ -15040,7 +15040,7 @@
       </c>
       <c r="D577" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E577" t="inlineStr">
@@ -15050,7 +15050,7 @@
       </c>
       <c r="F577" t="inlineStr">
         <is>
-          <t>3 - Getting Students to Relate</t>
+          <t>3 - Getting SS to Relate</t>
         </is>
       </c>
       <c r="G577" t="inlineStr"/>
@@ -15065,7 +15065,7 @@
       </c>
       <c r="D578" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E578" t="inlineStr">
@@ -15119,7 +15119,7 @@
       </c>
       <c r="D580" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E580" t="inlineStr">
@@ -15144,7 +15144,7 @@
       </c>
       <c r="D581" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E581" t="inlineStr">
@@ -15154,7 +15154,7 @@
       </c>
       <c r="F581" t="inlineStr">
         <is>
-          <t>3 - Getting Students to Relate</t>
+          <t>3 - Getting SS to Relate</t>
         </is>
       </c>
       <c r="G581" t="inlineStr"/>
@@ -15169,7 +15169,7 @@
       </c>
       <c r="D582" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E582" t="inlineStr">
@@ -15179,7 +15179,7 @@
       </c>
       <c r="F582" t="inlineStr">
         <is>
-          <t>3 - Getting Students to Relate</t>
+          <t>3 - Getting SS to Relate</t>
         </is>
       </c>
       <c r="G582" t="inlineStr"/>
@@ -15194,7 +15194,7 @@
       </c>
       <c r="D583" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E583" t="inlineStr">
@@ -15219,7 +15219,7 @@
       </c>
       <c r="D584" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E584" t="inlineStr">
@@ -15269,7 +15269,7 @@
       </c>
       <c r="D586" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E586" t="inlineStr">
@@ -15319,7 +15319,7 @@
       </c>
       <c r="D588" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E588" t="inlineStr">
@@ -15344,7 +15344,7 @@
       </c>
       <c r="D589" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E589" t="inlineStr">
@@ -15369,7 +15369,7 @@
       </c>
       <c r="D590" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E590" t="inlineStr">
@@ -15394,7 +15394,7 @@
       </c>
       <c r="D591" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E591" t="inlineStr">
@@ -15419,7 +15419,7 @@
       </c>
       <c r="D592" t="inlineStr">
         <is>
-          <t>Student</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E592" t="inlineStr">
@@ -15448,7 +15448,7 @@
       </c>
       <c r="D593" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E593" t="inlineStr">
@@ -15473,7 +15473,7 @@
       </c>
       <c r="D594" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E594" t="inlineStr">
@@ -15483,7 +15483,7 @@
       </c>
       <c r="F594" t="inlineStr">
         <is>
-          <t>3 - Getting Students to Relate</t>
+          <t>3 - Getting SS to Relate</t>
         </is>
       </c>
       <c r="G594" t="inlineStr"/>
@@ -15498,7 +15498,7 @@
       </c>
       <c r="D595" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E595" t="inlineStr">
@@ -15508,7 +15508,7 @@
       </c>
       <c r="F595" t="inlineStr">
         <is>
-          <t>3 - Getting Students to Relate</t>
+          <t>3 - Getting SS to Relate</t>
         </is>
       </c>
       <c r="G595" t="inlineStr"/>
@@ -15573,7 +15573,7 @@
       </c>
       <c r="D598" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E598" t="inlineStr">
@@ -15598,7 +15598,7 @@
       </c>
       <c r="D599" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E599" t="inlineStr">
@@ -15623,7 +15623,7 @@
       </c>
       <c r="D600" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E600" t="inlineStr">
@@ -15648,7 +15648,7 @@
       </c>
       <c r="D601" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E601" t="inlineStr">
@@ -15673,7 +15673,7 @@
       </c>
       <c r="D602" t="inlineStr">
         <is>
-          <t>Student</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E602" t="inlineStr">
@@ -15698,7 +15698,7 @@
       </c>
       <c r="D603" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E603" t="inlineStr">
@@ -15723,7 +15723,7 @@
       </c>
       <c r="D604" t="inlineStr">
         <is>
-          <t>Student</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E604" t="inlineStr">
@@ -15773,7 +15773,7 @@
       </c>
       <c r="D606" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E606" t="inlineStr">
@@ -15827,7 +15827,7 @@
       </c>
       <c r="D608" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E608" t="inlineStr">
@@ -15852,7 +15852,7 @@
       </c>
       <c r="D609" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E609" t="inlineStr">
@@ -15877,7 +15877,7 @@
       </c>
       <c r="D610" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E610" t="inlineStr">
@@ -15902,7 +15902,7 @@
       </c>
       <c r="D611" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E611" t="inlineStr">
@@ -15958,7 +15958,7 @@
       </c>
       <c r="D613" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E613" t="inlineStr">
@@ -15983,7 +15983,7 @@
       </c>
       <c r="D614" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E614" t="inlineStr">
@@ -16008,7 +16008,7 @@
       </c>
       <c r="D615" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E615" t="inlineStr">
@@ -16033,7 +16033,7 @@
       </c>
       <c r="D616" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E616" t="inlineStr">
@@ -16058,7 +16058,7 @@
       </c>
       <c r="D617" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E617" t="inlineStr">
@@ -16083,7 +16083,7 @@
       </c>
       <c r="D618" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E618" t="inlineStr">
@@ -16108,7 +16108,7 @@
       </c>
       <c r="D619" t="inlineStr">
         <is>
-          <t>CT</t>
+          <t>T2</t>
         </is>
       </c>
       <c r="E619" t="inlineStr">
@@ -16129,7 +16129,7 @@
       </c>
       <c r="D620" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E620" t="inlineStr">
@@ -16154,12 +16154,12 @@
       </c>
       <c r="D621" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E621" t="inlineStr">
         <is>
-          <t>And you can  draw a picture, Erik, if you can try words, I'd like that,  you can draw a sketch, any way you want to do it.</t>
+          <t>And you can  draw a piT2ure, Erik, if you can try words, I'd like that,  you can draw a sketch, any way you want to do it.</t>
         </is>
       </c>
       <c r="F621" t="inlineStr">
@@ -16179,7 +16179,7 @@
       </c>
       <c r="D622" t="inlineStr">
         <is>
-          <t>T/R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E622" t="inlineStr">
